--- a/Data Science - Cluster e KNN.xlsx
+++ b/Data Science - Cluster e KNN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielrb/Documents/GitHub/MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3A4C5F-1067-3242-98EA-924C2A5617C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2128EBD4-6783-0046-9290-D68C54D50837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="860" windowWidth="28800" windowHeight="16480" activeTab="3" xr2:uid="{7CB3B05D-B5B2-D347-AFF0-FFF50B50CBA7}"/>
+    <workbookView xWindow="1720" yWindow="860" windowWidth="32220" windowHeight="17180" activeTab="3" xr2:uid="{7CB3B05D-B5B2-D347-AFF0-FFF50B50CBA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Crédito Varejo" sheetId="16" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="187">
   <si>
     <t>Empresas</t>
   </si>
@@ -577,6 +577,33 @@
   </si>
   <si>
     <t>RRBBRBB</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Preditivos</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Atributos</t>
+  </si>
+  <si>
+    <t>(6-40)^2 + (11-40)^2</t>
+  </si>
+  <si>
+    <t>1 a 20</t>
+  </si>
+  <si>
+    <t>Duração (meses)</t>
+  </si>
+  <si>
+    <t>Valor (R$)</t>
   </si>
 </sst>
 </file>
@@ -819,7 +846,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -846,9 +873,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -941,12 +965,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -965,10 +983,22 @@
     <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
@@ -7509,13 +7539,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>56494</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>2540</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>179062</xdr:rowOff>
@@ -7553,13 +7583,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>40055</xdr:rowOff>
@@ -7815,9 +7845,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7855,7 +7885,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7961,7 +7991,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8103,7 +8133,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8160,20 +8190,20 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="18">
-        <v>0</v>
-      </c>
-      <c r="D2" s="18">
+      <c r="C2" s="17">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
         <v>20</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>0</v>
       </c>
       <c r="F2" s="1">
         <f>-1.96591-2.95095*C2+0.116143*D2+1.30123*E2</f>
         <v>0.35694999999999988</v>
       </c>
-      <c r="G2" s="52">
+      <c r="G2" s="51">
         <f>1/(1+EXP(-F2))</f>
         <v>0.58830191507575313</v>
       </c>
@@ -8206,7 +8236,7 @@
         <f t="shared" ref="F3:F66" si="0">-1.96591-2.95095*C3+0.116143*D3+1.30123*E3</f>
         <v>3.2841820000000004</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="51">
         <f t="shared" ref="G3:G66" si="1">1/(1+EXP(-F3))</f>
         <v>0.96388215580922398</v>
       </c>
@@ -8218,7 +8248,7 @@
         <f t="shared" ref="I3:I66" si="3">IF(H3=B3,1,0)</f>
         <v>1</v>
       </c>
-      <c r="J3" s="48"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -8240,7 +8270,7 @@
         <f t="shared" si="0"/>
         <v>1.7743230000000001</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="51">
         <f t="shared" si="1"/>
         <v>0.8549944549421129</v>
       </c>
@@ -8273,7 +8303,7 @@
         <f t="shared" si="0"/>
         <v>1.8904659999999998</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="51">
         <f t="shared" si="1"/>
         <v>0.86880865445284661</v>
       </c>
@@ -8306,7 +8336,7 @@
         <f t="shared" si="0"/>
         <v>1.8904659999999998</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="51">
         <f t="shared" si="1"/>
         <v>0.86880865445284661</v>
       </c>
@@ -8339,7 +8369,7 @@
         <f t="shared" si="0"/>
         <v>1.8904659999999998</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="51">
         <f t="shared" si="1"/>
         <v>0.86880865445284661</v>
       </c>
@@ -8372,7 +8402,7 @@
         <f t="shared" si="0"/>
         <v>0.70537899999999976</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="51">
         <f t="shared" si="1"/>
         <v>0.66937928490055754</v>
       </c>
@@ -8405,7 +8435,7 @@
         <f t="shared" si="0"/>
         <v>2.8196099999999999</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="51">
         <f t="shared" si="1"/>
         <v>0.9437263583123161</v>
       </c>
@@ -8438,7 +8468,7 @@
         <f t="shared" si="0"/>
         <v>2.8196099999999999</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="51">
         <f t="shared" si="1"/>
         <v>0.9437263583123161</v>
       </c>
@@ -8471,7 +8501,7 @@
         <f t="shared" si="0"/>
         <v>2.4711809999999996</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="51">
         <f t="shared" si="1"/>
         <v>0.92209664362658161</v>
       </c>
@@ -8504,7 +8534,7 @@
         <f t="shared" si="0"/>
         <v>1.65818</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="51">
         <f t="shared" si="1"/>
         <v>0.83999353839886493</v>
       </c>
@@ -8537,7 +8567,7 @@
         <f t="shared" si="0"/>
         <v>1.65818</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="51">
         <f t="shared" si="1"/>
         <v>0.83999353839886493</v>
       </c>
@@ -8570,7 +8600,7 @@
         <f t="shared" si="0"/>
         <v>-0.94434099999999987</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="51">
         <f t="shared" si="1"/>
         <v>0.28002431538746936</v>
       </c>
@@ -8603,7 +8633,7 @@
         <f t="shared" si="0"/>
         <v>1.6345229999999997</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="51">
         <f t="shared" si="1"/>
         <v>0.83678830269861859</v>
       </c>
@@ -8636,7 +8666,7 @@
         <f t="shared" si="0"/>
         <v>2.8196099999999999</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="51">
         <f t="shared" si="1"/>
         <v>0.9437263583123161</v>
       </c>
@@ -8669,7 +8699,7 @@
         <f t="shared" si="0"/>
         <v>3.864897</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="51">
         <f t="shared" si="1"/>
         <v>0.97946542726637165</v>
       </c>
@@ -8702,7 +8732,7 @@
         <f t="shared" si="0"/>
         <v>2.4475239999999996</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="51">
         <f t="shared" si="1"/>
         <v>0.92038019707562813</v>
       </c>
@@ -8735,7 +8765,7 @@
         <f t="shared" si="0"/>
         <v>2.3550380000000004</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="51">
         <f t="shared" si="1"/>
         <v>0.91333384243149596</v>
       </c>
@@ -8768,7 +8798,7 @@
         <f t="shared" si="0"/>
         <v>0.47309299999999999</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="51">
         <f t="shared" si="1"/>
         <v>0.61611556625706798</v>
       </c>
@@ -8801,7 +8831,7 @@
         <f t="shared" si="0"/>
         <v>2.7034669999999998</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="51">
         <f t="shared" si="1"/>
         <v>0.93723091397347036</v>
       </c>
@@ -8834,7 +8864,7 @@
         <f t="shared" si="0"/>
         <v>1.8668089999999999</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="51">
         <f t="shared" si="1"/>
         <v>0.86608862023115429</v>
       </c>
@@ -8867,7 +8897,7 @@
         <f t="shared" si="0"/>
         <v>3.0518960000000002</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="51">
         <f t="shared" si="1"/>
         <v>0.95486431170186958</v>
       </c>
@@ -8900,7 +8930,7 @@
         <f t="shared" si="0"/>
         <v>3.6326109999999998</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="51">
         <f t="shared" si="1"/>
         <v>0.97423438336108403</v>
       </c>
@@ -8933,7 +8963,7 @@
         <f t="shared" si="0"/>
         <v>2.7034669999999998</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="51">
         <f t="shared" si="1"/>
         <v>0.93723091397347036</v>
       </c>
@@ -8945,7 +8975,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K25" s="23"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -8967,7 +8997,7 @@
         <f t="shared" si="0"/>
         <v>2.3550380000000004</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="51">
         <f t="shared" si="1"/>
         <v>0.91333384243149596</v>
       </c>
@@ -8979,7 +9009,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K26" s="23"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -9001,7 +9031,7 @@
         <f t="shared" si="0"/>
         <v>2.7034669999999998</v>
       </c>
-      <c r="G27" s="52">
+      <c r="G27" s="51">
         <f t="shared" si="1"/>
         <v>0.93723091397347036</v>
       </c>
@@ -9034,7 +9064,7 @@
         <f t="shared" si="0"/>
         <v>2.1227520000000002</v>
       </c>
-      <c r="G28" s="52">
+      <c r="G28" s="51">
         <f t="shared" si="1"/>
         <v>0.89309496480980888</v>
       </c>
@@ -9067,7 +9097,7 @@
         <f t="shared" si="0"/>
         <v>1.5183799999999996</v>
       </c>
-      <c r="G29" s="52">
+      <c r="G29" s="51">
         <f t="shared" si="1"/>
         <v>0.82029980347286147</v>
       </c>
@@ -9100,7 +9130,7 @@
         <f t="shared" si="0"/>
         <v>2.4711809999999996</v>
       </c>
-      <c r="G30" s="52">
+      <c r="G30" s="51">
         <f t="shared" si="1"/>
         <v>0.92209664362658161</v>
       </c>
@@ -9139,7 +9169,7 @@
         <f t="shared" si="0"/>
         <v>0.12466400000000011</v>
       </c>
-      <c r="G31" s="52">
+      <c r="G31" s="51">
         <f t="shared" si="1"/>
         <v>0.5311256997695083</v>
       </c>
@@ -9154,14 +9184,14 @@
       <c r="L31" t="s">
         <v>145</v>
       </c>
-      <c r="M31" s="53">
+      <c r="M31" s="52">
         <f>M32/M33</f>
         <v>0.82777777777777772</v>
       </c>
-      <c r="P31" s="54" t="s">
+      <c r="P31" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="Q31" s="55">
+      <c r="Q31" s="54">
         <f>26/180</f>
         <v>0.14444444444444443</v>
       </c>
@@ -9186,7 +9216,7 @@
         <f t="shared" si="0"/>
         <v>0.12466400000000011</v>
       </c>
-      <c r="G32" s="52">
+      <c r="G32" s="51">
         <f t="shared" si="1"/>
         <v>0.5311256997695083</v>
       </c>
@@ -9205,10 +9235,10 @@
         <f>SUM(I2:I181)</f>
         <v>149</v>
       </c>
-      <c r="P32" s="54" t="s">
+      <c r="P32" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="Q32" s="56">
+      <c r="Q32" s="55">
         <f>5/180</f>
         <v>2.7777777777777776E-2</v>
       </c>
@@ -9233,7 +9263,7 @@
         <f t="shared" si="0"/>
         <v>2.2388950000000003</v>
       </c>
-      <c r="G33" s="52">
+      <c r="G33" s="51">
         <f t="shared" si="1"/>
         <v>0.90368832669399335</v>
       </c>
@@ -9272,7 +9302,7 @@
         <f t="shared" si="0"/>
         <v>3.5164680000000006</v>
       </c>
-      <c r="G34" s="52">
+      <c r="G34" s="51">
         <f t="shared" si="1"/>
         <v>0.97115271917830104</v>
       </c>
@@ -9308,7 +9338,7 @@
         <f t="shared" si="0"/>
         <v>2.3550380000000004</v>
       </c>
-      <c r="G35" s="52">
+      <c r="G35" s="51">
         <f t="shared" si="1"/>
         <v>0.91333384243149596</v>
       </c>
@@ -9350,7 +9380,7 @@
         <f t="shared" si="0"/>
         <v>2.3550380000000004</v>
       </c>
-      <c r="G36" s="52">
+      <c r="G36" s="51">
         <f t="shared" si="1"/>
         <v>0.91333384243149596</v>
       </c>
@@ -9368,7 +9398,7 @@
       <c r="M36">
         <v>125</v>
       </c>
-      <c r="N36" s="22">
+      <c r="N36" s="21">
         <f>M36/M37</f>
         <v>0.82781456953642385</v>
       </c>
@@ -9399,7 +9429,7 @@
         <f t="shared" si="0"/>
         <v>2.8196099999999999</v>
       </c>
-      <c r="G37" s="52">
+      <c r="G37" s="51">
         <f t="shared" si="1"/>
         <v>0.9437263583123161</v>
       </c>
@@ -9442,7 +9472,7 @@
         <f t="shared" si="0"/>
         <v>1.65818</v>
       </c>
-      <c r="G38" s="52">
+      <c r="G38" s="51">
         <f t="shared" si="1"/>
         <v>0.83999353839886493</v>
       </c>
@@ -9475,7 +9505,7 @@
         <f t="shared" si="0"/>
         <v>2.5873239999999997</v>
       </c>
-      <c r="G39" s="52">
+      <c r="G39" s="51">
         <f t="shared" si="1"/>
         <v>0.93004130482566627</v>
       </c>
@@ -9493,7 +9523,7 @@
       <c r="M39">
         <v>24</v>
       </c>
-      <c r="N39" s="22">
+      <c r="N39" s="21">
         <f>M39/M40</f>
         <v>0.82758620689655171</v>
       </c>
@@ -9518,7 +9548,7 @@
         <f t="shared" si="0"/>
         <v>3.0518960000000002</v>
       </c>
-      <c r="G40" s="52">
+      <c r="G40" s="51">
         <f t="shared" si="1"/>
         <v>0.95486431170186958</v>
       </c>
@@ -9554,7 +9584,7 @@
         <f t="shared" si="0"/>
         <v>3.2841820000000004</v>
       </c>
-      <c r="G41" s="52">
+      <c r="G41" s="51">
         <f t="shared" si="1"/>
         <v>0.96388215580922398</v>
       </c>
@@ -9587,7 +9617,7 @@
         <f t="shared" si="0"/>
         <v>1.8904659999999998</v>
       </c>
-      <c r="G42" s="52">
+      <c r="G42" s="51">
         <f t="shared" si="1"/>
         <v>0.86880865445284661</v>
       </c>
@@ -9620,7 +9650,7 @@
         <f t="shared" si="0"/>
         <v>0.35694999999999988</v>
       </c>
-      <c r="G43" s="52">
+      <c r="G43" s="51">
         <f t="shared" si="1"/>
         <v>0.58830191507575313</v>
       </c>
@@ -9632,7 +9662,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L43" s="51" t="s">
+      <c r="L43" s="50" t="s">
         <v>113</v>
       </c>
     </row>
@@ -9656,7 +9686,7 @@
         <f t="shared" si="0"/>
         <v>2.1227520000000002</v>
       </c>
-      <c r="G44" s="52">
+      <c r="G44" s="51">
         <f t="shared" si="1"/>
         <v>0.89309496480980888</v>
       </c>
@@ -9668,7 +9698,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L44" s="44" t="s">
+      <c r="L44" s="43" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9692,7 +9722,7 @@
         <f t="shared" si="0"/>
         <v>2.4711809999999996</v>
       </c>
-      <c r="G45" s="52">
+      <c r="G45" s="51">
         <f t="shared" si="1"/>
         <v>0.92209664362658161</v>
       </c>
@@ -9725,7 +9755,7 @@
         <f t="shared" si="0"/>
         <v>1.8904659999999998</v>
       </c>
-      <c r="G46" s="52">
+      <c r="G46" s="51">
         <f t="shared" si="1"/>
         <v>0.86880865445284661</v>
       </c>
@@ -9761,7 +9791,7 @@
         <f t="shared" si="0"/>
         <v>2.5873239999999997</v>
       </c>
-      <c r="G47" s="52">
+      <c r="G47" s="51">
         <f t="shared" si="1"/>
         <v>0.93004130482566627</v>
       </c>
@@ -9816,7 +9846,7 @@
         <f t="shared" si="0"/>
         <v>1.8668089999999999</v>
       </c>
-      <c r="G48" s="52">
+      <c r="G48" s="51">
         <f t="shared" si="1"/>
         <v>0.86608862023115429</v>
       </c>
@@ -9834,10 +9864,10 @@
       <c r="N48" t="s">
         <v>78</v>
       </c>
-      <c r="R48" s="19">
-        <v>1</v>
-      </c>
-      <c r="S48" s="19" t="s">
+      <c r="R48" s="18">
+        <v>1</v>
+      </c>
+      <c r="S48" s="18" t="s">
         <v>131</v>
       </c>
     </row>
@@ -9861,7 +9891,7 @@
         <f t="shared" si="0"/>
         <v>1.65818</v>
       </c>
-      <c r="G49" s="52">
+      <c r="G49" s="51">
         <f t="shared" si="1"/>
         <v>0.83999353839886493</v>
       </c>
@@ -9873,7 +9903,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M49" s="45">
+      <c r="M49" s="44">
         <f>M47/M48</f>
         <v>0.82777777777777772</v>
       </c>
@@ -9907,7 +9937,7 @@
         <f t="shared" si="0"/>
         <v>2.2388950000000003</v>
       </c>
-      <c r="G50" s="52">
+      <c r="G50" s="51">
         <f t="shared" si="1"/>
         <v>0.90368832669399335</v>
       </c>
@@ -9919,7 +9949,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q50" s="21" t="s">
+      <c r="Q50" s="20" t="s">
         <v>132</v>
       </c>
       <c r="U50" t="s">
@@ -9946,7 +9976,7 @@
         <f t="shared" si="0"/>
         <v>2.0066090000000001</v>
       </c>
-      <c r="G51" s="52">
+      <c r="G51" s="51">
         <f t="shared" si="1"/>
         <v>0.8814892361184159</v>
       </c>
@@ -9958,7 +9988,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q51" s="21" t="s">
+      <c r="Q51" s="20" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9982,7 +10012,7 @@
         <f t="shared" si="0"/>
         <v>-2.245571</v>
       </c>
-      <c r="G52" s="52">
+      <c r="G52" s="51">
         <f t="shared" si="1"/>
         <v>9.5732186622230264E-2</v>
       </c>
@@ -10015,7 +10045,7 @@
         <f t="shared" si="0"/>
         <v>0.82152199999999986</v>
       </c>
-      <c r="G53" s="52">
+      <c r="G53" s="51">
         <f t="shared" si="1"/>
         <v>0.6945593229186573</v>
       </c>
@@ -10051,7 +10081,7 @@
         <f t="shared" si="0"/>
         <v>2.0066090000000001</v>
       </c>
-      <c r="G54" s="52">
+      <c r="G54" s="51">
         <f t="shared" si="1"/>
         <v>0.8814892361184159</v>
       </c>
@@ -10093,7 +10123,7 @@
         <f t="shared" si="0"/>
         <v>3.0518960000000002</v>
       </c>
-      <c r="G55" s="52">
+      <c r="G55" s="51">
         <f t="shared" si="1"/>
         <v>0.95486431170186958</v>
       </c>
@@ -10132,7 +10162,7 @@
         <f t="shared" si="0"/>
         <v>0.35694999999999988</v>
       </c>
-      <c r="G56" s="52">
+      <c r="G56" s="51">
         <f t="shared" si="1"/>
         <v>0.58830191507575313</v>
       </c>
@@ -10165,7 +10195,7 @@
         <f t="shared" si="0"/>
         <v>1.8668089999999999</v>
       </c>
-      <c r="G57" s="52">
+      <c r="G57" s="51">
         <f t="shared" si="1"/>
         <v>0.86608862023115429</v>
       </c>
@@ -10201,7 +10231,7 @@
         <f t="shared" si="0"/>
         <v>1.8904659999999998</v>
       </c>
-      <c r="G58" s="52">
+      <c r="G58" s="51">
         <f t="shared" si="1"/>
         <v>0.86880865445284661</v>
       </c>
@@ -10237,7 +10267,7 @@
         <f t="shared" si="0"/>
         <v>1.6345229999999997</v>
       </c>
-      <c r="G59" s="52">
+      <c r="G59" s="51">
         <f t="shared" si="1"/>
         <v>0.83678830269861859</v>
       </c>
@@ -10270,7 +10300,7 @@
         <f t="shared" si="0"/>
         <v>1.7743230000000001</v>
       </c>
-      <c r="G60" s="52">
+      <c r="G60" s="51">
         <f t="shared" si="1"/>
         <v>0.8549944549421129</v>
       </c>
@@ -10303,7 +10333,7 @@
         <f t="shared" si="0"/>
         <v>1.4258940000000002</v>
       </c>
-      <c r="G61" s="52">
+      <c r="G61" s="51">
         <f t="shared" si="1"/>
         <v>0.8062607471053419</v>
       </c>
@@ -10336,7 +10366,7 @@
         <f t="shared" si="0"/>
         <v>1.4258940000000002</v>
       </c>
-      <c r="G62" s="52">
+      <c r="G62" s="51">
         <f t="shared" si="1"/>
         <v>0.8062607471053419</v>
       </c>
@@ -10369,7 +10399,7 @@
         <f t="shared" si="0"/>
         <v>2.1227520000000002</v>
       </c>
-      <c r="G63" s="52">
+      <c r="G63" s="51">
         <f t="shared" si="1"/>
         <v>0.89309496480980888</v>
       </c>
@@ -10402,7 +10432,7 @@
         <f t="shared" si="0"/>
         <v>0.93766499999999997</v>
       </c>
-      <c r="G64" s="52">
+      <c r="G64" s="51">
         <f t="shared" si="1"/>
         <v>0.71862775708849003</v>
       </c>
@@ -10435,7 +10465,7 @@
         <f t="shared" si="0"/>
         <v>1.402237</v>
       </c>
-      <c r="G65" s="52">
+      <c r="G65" s="51">
         <f t="shared" si="1"/>
         <v>0.80253862672853948</v>
       </c>
@@ -10468,7 +10498,7 @@
         <f t="shared" si="0"/>
         <v>2.4711809999999996</v>
       </c>
-      <c r="G66" s="52">
+      <c r="G66" s="51">
         <f t="shared" si="1"/>
         <v>0.92209664362658161</v>
       </c>
@@ -10501,7 +10531,7 @@
         <f t="shared" ref="F67:F130" si="4">-1.96591-2.95095*C67+0.116143*D67+1.30123*E67</f>
         <v>0.47309299999999999</v>
       </c>
-      <c r="G67" s="52">
+      <c r="G67" s="51">
         <f t="shared" ref="G67:G130" si="5">1/(1+EXP(-F67))</f>
         <v>0.61611556625706798</v>
       </c>
@@ -10534,7 +10564,7 @@
         <f t="shared" si="4"/>
         <v>0.93766499999999997</v>
       </c>
-      <c r="G68" s="52">
+      <c r="G68" s="51">
         <f t="shared" si="5"/>
         <v>0.71862775708849003</v>
       </c>
@@ -10567,7 +10597,7 @@
         <f t="shared" si="4"/>
         <v>2.7034669999999998</v>
       </c>
-      <c r="G69" s="52">
+      <c r="G69" s="51">
         <f t="shared" si="5"/>
         <v>0.93723091397347036</v>
       </c>
@@ -10600,7 +10630,7 @@
         <f t="shared" si="4"/>
         <v>2.912096</v>
       </c>
-      <c r="G70" s="52">
+      <c r="G70" s="51">
         <f t="shared" si="5"/>
         <v>0.94844115643506999</v>
       </c>
@@ -10633,7 +10663,7 @@
         <f t="shared" si="4"/>
         <v>0.70537899999999976</v>
       </c>
-      <c r="G71" s="52">
+      <c r="G71" s="51">
         <f t="shared" si="5"/>
         <v>0.66937928490055754</v>
       </c>
@@ -10666,7 +10696,7 @@
         <f t="shared" si="4"/>
         <v>2.0066090000000001</v>
       </c>
-      <c r="G72" s="52">
+      <c r="G72" s="51">
         <f t="shared" si="5"/>
         <v>0.8814892361184159</v>
       </c>
@@ -10699,7 +10729,7 @@
         <f t="shared" si="4"/>
         <v>3.0518960000000002</v>
       </c>
-      <c r="G73" s="52">
+      <c r="G73" s="51">
         <f t="shared" si="5"/>
         <v>0.95486431170186958</v>
       </c>
@@ -10732,7 +10762,7 @@
         <f t="shared" si="4"/>
         <v>2.1227520000000002</v>
       </c>
-      <c r="G74" s="52">
+      <c r="G74" s="51">
         <f t="shared" si="5"/>
         <v>0.89309496480980888</v>
       </c>
@@ -10765,7 +10795,7 @@
         <f t="shared" si="4"/>
         <v>2.912096</v>
       </c>
-      <c r="G75" s="52">
+      <c r="G75" s="51">
         <f t="shared" si="5"/>
         <v>0.94844115643506999</v>
       </c>
@@ -10798,7 +10828,7 @@
         <f t="shared" si="4"/>
         <v>3.5164680000000006</v>
       </c>
-      <c r="G76" s="52">
+      <c r="G76" s="51">
         <f t="shared" si="5"/>
         <v>0.97115271917830104</v>
       </c>
@@ -10831,7 +10861,7 @@
         <f t="shared" si="4"/>
         <v>0.24080699999999977</v>
       </c>
-      <c r="G77" s="52">
+      <c r="G77" s="51">
         <f t="shared" si="5"/>
         <v>0.55991251213744808</v>
       </c>
@@ -10864,7 +10894,7 @@
         <f t="shared" si="4"/>
         <v>1.0538080000000001</v>
       </c>
-      <c r="G78" s="52">
+      <c r="G78" s="51">
         <f t="shared" si="5"/>
         <v>0.74150546898289438</v>
       </c>
@@ -10897,7 +10927,7 @@
         <f t="shared" si="4"/>
         <v>3.1680390000000003</v>
       </c>
-      <c r="G79" s="52">
+      <c r="G79" s="51">
         <f t="shared" si="5"/>
         <v>0.9596136539161173</v>
       </c>
@@ -10930,7 +10960,7 @@
         <f t="shared" si="4"/>
         <v>1.7743230000000001</v>
       </c>
-      <c r="G80" s="52">
+      <c r="G80" s="51">
         <f t="shared" si="5"/>
         <v>0.8549944549421129</v>
       </c>
@@ -10963,7 +10993,7 @@
         <f t="shared" si="4"/>
         <v>0.82152199999999986</v>
       </c>
-      <c r="G81" s="52">
+      <c r="G81" s="51">
         <f t="shared" si="5"/>
         <v>0.6945593229186573</v>
       </c>
@@ -10996,7 +11026,7 @@
         <f t="shared" si="4"/>
         <v>2.0066090000000001</v>
       </c>
-      <c r="G82" s="52">
+      <c r="G82" s="51">
         <f t="shared" si="5"/>
         <v>0.8814892361184159</v>
       </c>
@@ -11029,7 +11059,7 @@
         <f t="shared" si="4"/>
         <v>1.8668089999999999</v>
       </c>
-      <c r="G83" s="52">
+      <c r="G83" s="51">
         <f t="shared" si="5"/>
         <v>0.86608862023115429</v>
       </c>
@@ -11062,7 +11092,7 @@
         <f t="shared" si="4"/>
         <v>1.6345229999999997</v>
       </c>
-      <c r="G84" s="52">
+      <c r="G84" s="51">
         <f t="shared" si="5"/>
         <v>0.83678830269861859</v>
       </c>
@@ -11095,7 +11125,7 @@
         <f t="shared" si="4"/>
         <v>0.47309299999999999</v>
       </c>
-      <c r="G85" s="52">
+      <c r="G85" s="51">
         <f t="shared" si="5"/>
         <v>0.61611556625706798</v>
       </c>
@@ -11128,7 +11158,7 @@
         <f t="shared" si="4"/>
         <v>0.82152199999999986</v>
       </c>
-      <c r="G86" s="52">
+      <c r="G86" s="51">
         <f t="shared" si="5"/>
         <v>0.6945593229186573</v>
       </c>
@@ -11161,7 +11191,7 @@
         <f t="shared" si="4"/>
         <v>3.1680390000000003</v>
       </c>
-      <c r="G87" s="52">
+      <c r="G87" s="51">
         <f t="shared" si="5"/>
         <v>0.9596136539161173</v>
       </c>
@@ -11194,7 +11224,7 @@
         <f t="shared" si="4"/>
         <v>0.35694999999999988</v>
       </c>
-      <c r="G88" s="52">
+      <c r="G88" s="51">
         <f t="shared" si="5"/>
         <v>0.58830191507575313</v>
       </c>
@@ -11227,7 +11257,7 @@
         <f t="shared" si="4"/>
         <v>0.82152199999999986</v>
       </c>
-      <c r="G89" s="52">
+      <c r="G89" s="51">
         <f t="shared" si="5"/>
         <v>0.6945593229186573</v>
       </c>
@@ -11260,7 +11290,7 @@
         <f t="shared" si="4"/>
         <v>2.3313809999999995</v>
       </c>
-      <c r="G90" s="52">
+      <c r="G90" s="51">
         <f t="shared" si="5"/>
         <v>0.91144286719270828</v>
       </c>
@@ -11293,7 +11323,7 @@
         <f t="shared" si="4"/>
         <v>0.70537899999999976</v>
       </c>
-      <c r="G91" s="52">
+      <c r="G91" s="51">
         <f t="shared" si="5"/>
         <v>0.66937928490055754</v>
       </c>
@@ -11326,7 +11356,7 @@
         <f t="shared" si="4"/>
         <v>0.93766499999999997</v>
       </c>
-      <c r="G92" s="52">
+      <c r="G92" s="51">
         <f t="shared" si="5"/>
         <v>0.71862775708849003</v>
       </c>
@@ -11359,7 +11389,7 @@
         <f t="shared" si="4"/>
         <v>0.58923599999999965</v>
       </c>
-      <c r="G93" s="52">
+      <c r="G93" s="51">
         <f t="shared" si="5"/>
         <v>0.64318982942402791</v>
       </c>
@@ -11392,7 +11422,7 @@
         <f t="shared" si="4"/>
         <v>-1.2927699999999998</v>
       </c>
-      <c r="G94" s="52">
+      <c r="G94" s="51">
         <f t="shared" si="5"/>
         <v>0.21538432862022705</v>
       </c>
@@ -11425,7 +11455,7 @@
         <f t="shared" si="4"/>
         <v>2.3550380000000004</v>
       </c>
-      <c r="G95" s="52">
+      <c r="G95" s="51">
         <f t="shared" si="5"/>
         <v>0.91333384243149596</v>
       </c>
@@ -11458,7 +11488,7 @@
         <f t="shared" si="4"/>
         <v>4.5617549999999998</v>
       </c>
-      <c r="G96" s="52">
+      <c r="G96" s="51">
         <f t="shared" si="5"/>
         <v>0.98966422969810819</v>
       </c>
@@ -11491,7 +11521,7 @@
         <f t="shared" si="4"/>
         <v>1.5183799999999996</v>
       </c>
-      <c r="G97" s="52">
+      <c r="G97" s="51">
         <f t="shared" si="5"/>
         <v>0.82029980347286147</v>
       </c>
@@ -11524,7 +11554,7 @@
         <f t="shared" si="4"/>
         <v>1.5183799999999996</v>
       </c>
-      <c r="G98" s="52">
+      <c r="G98" s="51">
         <f t="shared" si="5"/>
         <v>0.82029980347286147</v>
       </c>
@@ -11557,7 +11587,7 @@
         <f t="shared" si="4"/>
         <v>1.65818</v>
       </c>
-      <c r="G99" s="52">
+      <c r="G99" s="51">
         <f t="shared" si="5"/>
         <v>0.83999353839886493</v>
       </c>
@@ -11590,7 +11620,7 @@
         <f t="shared" si="4"/>
         <v>1.65818</v>
       </c>
-      <c r="G100" s="52">
+      <c r="G100" s="51">
         <f t="shared" si="5"/>
         <v>0.83999353839886493</v>
       </c>
@@ -11623,7 +11653,7 @@
         <f t="shared" si="4"/>
         <v>1.6345229999999997</v>
       </c>
-      <c r="G101" s="52">
+      <c r="G101" s="51">
         <f t="shared" si="5"/>
         <v>0.83678830269861859</v>
       </c>
@@ -11656,7 +11686,7 @@
         <f t="shared" si="4"/>
         <v>2.2388950000000003</v>
       </c>
-      <c r="G102" s="52">
+      <c r="G102" s="51">
         <f t="shared" si="5"/>
         <v>0.90368832669399335</v>
       </c>
@@ -11689,7 +11719,7 @@
         <f t="shared" si="4"/>
         <v>-0.71205499999999966</v>
       </c>
-      <c r="G103" s="52">
+      <c r="G103" s="51">
         <f t="shared" si="5"/>
         <v>0.32914491942336765</v>
       </c>
@@ -11722,7 +11752,7 @@
         <f t="shared" si="4"/>
         <v>0.93766499999999997</v>
       </c>
-      <c r="G104" s="52">
+      <c r="G104" s="51">
         <f t="shared" si="5"/>
         <v>0.71862775708849003</v>
       </c>
@@ -11755,7 +11785,7 @@
         <f t="shared" si="4"/>
         <v>0.82152199999999986</v>
       </c>
-      <c r="G105" s="52">
+      <c r="G105" s="51">
         <f t="shared" si="5"/>
         <v>0.6945593229186573</v>
       </c>
@@ -11788,7 +11818,7 @@
         <f t="shared" si="4"/>
         <v>1.1699509999999997</v>
       </c>
-      <c r="G106" s="52">
+      <c r="G106" s="51">
         <f t="shared" si="5"/>
         <v>0.76313615863231865</v>
       </c>
@@ -11821,7 +11851,7 @@
         <f t="shared" si="4"/>
         <v>-1.8971419999999997</v>
       </c>
-      <c r="G107" s="52">
+      <c r="G107" s="51">
         <f t="shared" si="5"/>
         <v>0.13043228564064233</v>
       </c>
@@ -11854,7 +11884,7 @@
         <f t="shared" si="4"/>
         <v>1.402237</v>
       </c>
-      <c r="G108" s="52">
+      <c r="G108" s="51">
         <f t="shared" si="5"/>
         <v>0.80253862672853948</v>
       </c>
@@ -11887,7 +11917,7 @@
         <f t="shared" si="4"/>
         <v>0.70537899999999976</v>
       </c>
-      <c r="G109" s="52">
+      <c r="G109" s="51">
         <f t="shared" si="5"/>
         <v>0.66937928490055754</v>
       </c>
@@ -11920,7 +11950,7 @@
         <f t="shared" si="4"/>
         <v>1.5420369999999999</v>
       </c>
-      <c r="G110" s="52">
+      <c r="G110" s="51">
         <f t="shared" si="5"/>
         <v>0.82376064998864795</v>
       </c>
@@ -11953,7 +11983,7 @@
         <f t="shared" si="4"/>
         <v>0.93766499999999997</v>
       </c>
-      <c r="G111" s="52">
+      <c r="G111" s="51">
         <f t="shared" si="5"/>
         <v>0.71862775708849003</v>
       </c>
@@ -11986,7 +12016,7 @@
         <f t="shared" si="4"/>
         <v>1.8668089999999999</v>
       </c>
-      <c r="G112" s="52">
+      <c r="G112" s="51">
         <f t="shared" si="5"/>
         <v>0.86608862023115429</v>
       </c>
@@ -12019,7 +12049,7 @@
         <f t="shared" si="4"/>
         <v>2.0990950000000002</v>
       </c>
-      <c r="G113" s="52">
+      <c r="G113" s="51">
         <f t="shared" si="5"/>
         <v>0.89081518647373215</v>
       </c>
@@ -12052,7 +12082,7 @@
         <f t="shared" si="4"/>
         <v>2.8196099999999999</v>
       </c>
-      <c r="G114" s="52">
+      <c r="G114" s="51">
         <f t="shared" si="5"/>
         <v>0.9437263583123161</v>
       </c>
@@ -12085,7 +12115,7 @@
         <f t="shared" si="4"/>
         <v>1.982952</v>
       </c>
-      <c r="G115" s="52">
+      <c r="G115" s="51">
         <f t="shared" si="5"/>
         <v>0.87899549540192146</v>
       </c>
@@ -12118,7 +12148,7 @@
         <f t="shared" si="4"/>
         <v>1.7743230000000001</v>
       </c>
-      <c r="G116" s="52">
+      <c r="G116" s="51">
         <f t="shared" si="5"/>
         <v>0.8549944549421129</v>
       </c>
@@ -12151,7 +12181,7 @@
         <f t="shared" si="4"/>
         <v>2.7034669999999998</v>
       </c>
-      <c r="G117" s="52">
+      <c r="G117" s="51">
         <f t="shared" si="5"/>
         <v>0.93723091397347036</v>
       </c>
@@ -12184,7 +12214,7 @@
         <f t="shared" si="4"/>
         <v>5.1424700000000003</v>
       </c>
-      <c r="G118" s="52">
+      <c r="G118" s="51">
         <f t="shared" si="5"/>
         <v>0.99419070601994397</v>
       </c>
@@ -12217,7 +12247,7 @@
         <f t="shared" si="4"/>
         <v>2.8196099999999999</v>
       </c>
-      <c r="G119" s="52">
+      <c r="G119" s="51">
         <f t="shared" si="5"/>
         <v>0.9437263583123161</v>
       </c>
@@ -12250,7 +12280,7 @@
         <f t="shared" si="4"/>
         <v>3.9810400000000001</v>
       </c>
-      <c r="G120" s="52">
+      <c r="G120" s="51">
         <f t="shared" si="5"/>
         <v>0.98167582661085284</v>
       </c>
@@ -12283,7 +12313,7 @@
         <f t="shared" si="4"/>
         <v>5.723185</v>
       </c>
-      <c r="G121" s="52">
+      <c r="G121" s="51">
         <f t="shared" si="5"/>
         <v>0.99674137173303101</v>
       </c>
@@ -12316,7 +12346,7 @@
         <f t="shared" si="4"/>
         <v>1.7743230000000001</v>
       </c>
-      <c r="G122" s="52">
+      <c r="G122" s="51">
         <f t="shared" si="5"/>
         <v>0.8549944549421129</v>
       </c>
@@ -12349,7 +12379,7 @@
         <f t="shared" si="4"/>
         <v>2.4711809999999996</v>
       </c>
-      <c r="G123" s="52">
+      <c r="G123" s="51">
         <f t="shared" si="5"/>
         <v>0.92209664362658161</v>
       </c>
@@ -12382,7 +12412,7 @@
         <f t="shared" si="4"/>
         <v>1.8904659999999998</v>
       </c>
-      <c r="G124" s="52">
+      <c r="G124" s="51">
         <f t="shared" si="5"/>
         <v>0.86880865445284661</v>
       </c>
@@ -12415,7 +12445,7 @@
         <f t="shared" si="4"/>
         <v>2.0066090000000001</v>
       </c>
-      <c r="G125" s="52">
+      <c r="G125" s="51">
         <f t="shared" si="5"/>
         <v>0.8814892361184159</v>
       </c>
@@ -12448,7 +12478,7 @@
         <f t="shared" si="4"/>
         <v>2.3550380000000004</v>
       </c>
-      <c r="G126" s="52">
+      <c r="G126" s="51">
         <f t="shared" si="5"/>
         <v>0.91333384243149596</v>
       </c>
@@ -12481,7 +12511,7 @@
         <f t="shared" si="4"/>
         <v>3.0518960000000002</v>
       </c>
-      <c r="G127" s="52">
+      <c r="G127" s="51">
         <f t="shared" si="5"/>
         <v>0.95486431170186958</v>
       </c>
@@ -12514,7 +12544,7 @@
         <f t="shared" si="4"/>
         <v>1.982952</v>
       </c>
-      <c r="G128" s="52">
+      <c r="G128" s="51">
         <f t="shared" si="5"/>
         <v>0.87899549540192146</v>
       </c>
@@ -12547,7 +12577,7 @@
         <f t="shared" si="4"/>
         <v>3.0518960000000002</v>
       </c>
-      <c r="G129" s="52">
+      <c r="G129" s="51">
         <f t="shared" si="5"/>
         <v>0.95486431170186958</v>
       </c>
@@ -12580,7 +12610,7 @@
         <f t="shared" si="4"/>
         <v>2.0990950000000002</v>
       </c>
-      <c r="G130" s="52">
+      <c r="G130" s="51">
         <f t="shared" si="5"/>
         <v>0.89081518647373215</v>
       </c>
@@ -12613,7 +12643,7 @@
         <f t="shared" ref="F131:F181" si="8">-1.96591-2.95095*C131+0.116143*D131+1.30123*E131</f>
         <v>3.3766679999999996</v>
       </c>
-      <c r="G131" s="52">
+      <c r="G131" s="51">
         <f t="shared" ref="G131:G181" si="9">1/(1+EXP(-F131))</f>
         <v>0.96696734155512321</v>
       </c>
@@ -12646,7 +12676,7 @@
         <f t="shared" si="8"/>
         <v>2.2388950000000003</v>
       </c>
-      <c r="G132" s="52">
+      <c r="G132" s="51">
         <f t="shared" si="9"/>
         <v>0.90368832669399335</v>
       </c>
@@ -12679,7 +12709,7 @@
         <f t="shared" si="8"/>
         <v>1.0538080000000001</v>
       </c>
-      <c r="G133" s="52">
+      <c r="G133" s="51">
         <f t="shared" si="9"/>
         <v>0.74150546898289438</v>
       </c>
@@ -12712,7 +12742,7 @@
         <f t="shared" si="8"/>
         <v>0.44937500000000052</v>
       </c>
-      <c r="G134" s="52">
+      <c r="G134" s="51">
         <f t="shared" si="9"/>
         <v>0.61049062432783108</v>
       </c>
@@ -12745,7 +12775,7 @@
         <f t="shared" si="8"/>
         <v>-1.8971419999999997</v>
       </c>
-      <c r="G135" s="52">
+      <c r="G135" s="51">
         <f t="shared" si="9"/>
         <v>0.13043228564064233</v>
       </c>
@@ -12778,7 +12808,7 @@
         <f t="shared" si="8"/>
         <v>1.0538080000000001</v>
       </c>
-      <c r="G136" s="52">
+      <c r="G136" s="51">
         <f t="shared" si="9"/>
         <v>0.74150546898289438</v>
       </c>
@@ -12811,7 +12841,7 @@
         <f t="shared" si="8"/>
         <v>1.2860939999999998</v>
       </c>
-      <c r="G137" s="52">
+      <c r="G137" s="51">
         <f t="shared" si="9"/>
         <v>0.78348532440493124</v>
       </c>
@@ -12844,7 +12874,7 @@
         <f t="shared" si="8"/>
         <v>1.2860939999999998</v>
       </c>
-      <c r="G138" s="52">
+      <c r="G138" s="51">
         <f t="shared" si="9"/>
         <v>0.78348532440493124</v>
       </c>
@@ -12877,7 +12907,7 @@
         <f t="shared" si="8"/>
         <v>0.93766499999999997</v>
       </c>
-      <c r="G139" s="52">
+      <c r="G139" s="51">
         <f t="shared" si="9"/>
         <v>0.71862775708849003</v>
       </c>
@@ -12910,7 +12940,7 @@
         <f t="shared" si="8"/>
         <v>-2.0132849999999998</v>
       </c>
-      <c r="G140" s="52">
+      <c r="G140" s="51">
         <f t="shared" si="9"/>
         <v>0.11781512337074504</v>
       </c>
@@ -12943,7 +12973,7 @@
         <f t="shared" si="8"/>
         <v>-1.060484</v>
       </c>
-      <c r="G141" s="52">
+      <c r="G141" s="51">
         <f t="shared" si="9"/>
         <v>0.25721697253345743</v>
       </c>
@@ -12976,7 +13006,7 @@
         <f t="shared" si="8"/>
         <v>2.5873239999999997</v>
       </c>
-      <c r="G142" s="52">
+      <c r="G142" s="51">
         <f t="shared" si="9"/>
         <v>0.93004130482566627</v>
       </c>
@@ -13009,7 +13039,7 @@
         <f t="shared" si="8"/>
         <v>1.65818</v>
       </c>
-      <c r="G143" s="52">
+      <c r="G143" s="51">
         <f t="shared" si="9"/>
         <v>0.83999353839886493</v>
       </c>
@@ -13042,7 +13072,7 @@
         <f t="shared" si="8"/>
         <v>1.0538080000000001</v>
       </c>
-      <c r="G144" s="52">
+      <c r="G144" s="51">
         <f t="shared" si="9"/>
         <v>0.74150546898289438</v>
       </c>
@@ -13075,7 +13105,7 @@
         <f t="shared" si="8"/>
         <v>-2.9424289999999997</v>
       </c>
-      <c r="G145" s="52">
+      <c r="G145" s="51">
         <f t="shared" si="9"/>
         <v>5.0095560411730328E-2</v>
       </c>
@@ -13108,7 +13138,7 @@
         <f t="shared" si="8"/>
         <v>-0.59591199999999955</v>
       </c>
-      <c r="G146" s="52">
+      <c r="G146" s="51">
         <f t="shared" si="9"/>
         <v>0.35527951967688237</v>
       </c>
@@ -13141,7 +13171,7 @@
         <f t="shared" si="8"/>
         <v>-1.1766269999999996</v>
       </c>
-      <c r="G147" s="52">
+      <c r="G147" s="51">
         <f t="shared" si="9"/>
         <v>0.23565921250881708</v>
       </c>
@@ -13174,7 +13204,7 @@
         <f t="shared" si="8"/>
         <v>-2.3617140000000001</v>
       </c>
-      <c r="G148" s="52">
+      <c r="G148" s="51">
         <f t="shared" si="9"/>
         <v>8.613917401373844E-2</v>
       </c>
@@ -13207,7 +13237,7 @@
         <f t="shared" si="8"/>
         <v>-0.71205499999999966</v>
       </c>
-      <c r="G149" s="52">
+      <c r="G149" s="51">
         <f t="shared" si="9"/>
         <v>0.32914491942336765</v>
       </c>
@@ -13240,7 +13270,7 @@
         <f t="shared" si="8"/>
         <v>0.58923599999999965</v>
       </c>
-      <c r="G150" s="52">
+      <c r="G150" s="51">
         <f t="shared" si="9"/>
         <v>0.64318982942402791</v>
       </c>
@@ -13273,7 +13303,7 @@
         <f t="shared" si="8"/>
         <v>0.47309299999999999</v>
       </c>
-      <c r="G151" s="52">
+      <c r="G151" s="51">
         <f t="shared" si="9"/>
         <v>0.61611556625706798</v>
       </c>
@@ -13306,7 +13336,7 @@
         <f t="shared" si="8"/>
         <v>1.0538080000000001</v>
       </c>
-      <c r="G152" s="52">
+      <c r="G152" s="51">
         <f t="shared" si="9"/>
         <v>0.74150546898289438</v>
       </c>
@@ -13339,7 +13369,7 @@
         <f t="shared" si="8"/>
         <v>0.35694999999999988</v>
       </c>
-      <c r="G153" s="52">
+      <c r="G153" s="51">
         <f t="shared" si="9"/>
         <v>0.58830191507575313</v>
       </c>
@@ -13372,7 +13402,7 @@
         <f t="shared" si="8"/>
         <v>1.65818</v>
       </c>
-      <c r="G154" s="52">
+      <c r="G154" s="51">
         <f t="shared" si="9"/>
         <v>0.83999353839886493</v>
       </c>
@@ -13405,7 +13435,7 @@
         <f t="shared" si="8"/>
         <v>2.4711809999999996</v>
       </c>
-      <c r="G155" s="52">
+      <c r="G155" s="51">
         <f t="shared" si="9"/>
         <v>0.92209664362658161</v>
       </c>
@@ -13438,7 +13468,7 @@
         <f t="shared" si="8"/>
         <v>0.93766499999999997</v>
       </c>
-      <c r="G156" s="52">
+      <c r="G156" s="51">
         <f t="shared" si="9"/>
         <v>0.71862775708849003</v>
       </c>
@@ -13471,7 +13501,7 @@
         <f t="shared" si="8"/>
         <v>0.12466400000000011</v>
       </c>
-      <c r="G157" s="52">
+      <c r="G157" s="51">
         <f t="shared" si="9"/>
         <v>0.5311256997695083</v>
       </c>
@@ -13504,7 +13534,7 @@
         <f t="shared" si="8"/>
         <v>-2.4778569999999998</v>
       </c>
-      <c r="G158" s="52">
+      <c r="G158" s="51">
         <f t="shared" si="9"/>
         <v>7.7425139115308392E-2</v>
       </c>
@@ -13537,7 +13567,7 @@
         <f t="shared" si="8"/>
         <v>-2.245571</v>
       </c>
-      <c r="G159" s="52">
+      <c r="G159" s="51">
         <f t="shared" si="9"/>
         <v>9.5732186622230264E-2</v>
       </c>
@@ -13570,7 +13600,7 @@
         <f t="shared" si="8"/>
         <v>-2.3617140000000001</v>
       </c>
-      <c r="G160" s="52">
+      <c r="G160" s="51">
         <f t="shared" si="9"/>
         <v>8.613917401373844E-2</v>
       </c>
@@ -13603,7 +13633,7 @@
         <f t="shared" si="8"/>
         <v>-1.1766269999999996</v>
       </c>
-      <c r="G161" s="52">
+      <c r="G161" s="51">
         <f t="shared" si="9"/>
         <v>0.23565921250881708</v>
       </c>
@@ -13636,7 +13666,7 @@
         <f t="shared" si="8"/>
         <v>-1.5250559999999995</v>
       </c>
-      <c r="G162" s="52">
+      <c r="G162" s="51">
         <f t="shared" si="9"/>
         <v>0.17871820394254412</v>
       </c>
@@ -13669,7 +13699,7 @@
         <f t="shared" si="8"/>
         <v>-2.1294279999999999</v>
       </c>
-      <c r="G163" s="52">
+      <c r="G163" s="51">
         <f t="shared" si="9"/>
         <v>0.10626930579372872</v>
       </c>
@@ -13702,7 +13732,7 @@
         <f t="shared" si="8"/>
         <v>-2.4778569999999998</v>
       </c>
-      <c r="G164" s="52">
+      <c r="G164" s="51">
         <f t="shared" si="9"/>
         <v>7.7425139115308392E-2</v>
       </c>
@@ -13735,7 +13765,7 @@
         <f t="shared" si="8"/>
         <v>-2.710143</v>
       </c>
-      <c r="G165" s="52">
+      <c r="G165" s="51">
         <f t="shared" si="9"/>
         <v>6.2377487281883429E-2</v>
       </c>
@@ -13768,7 +13798,7 @@
         <f t="shared" si="8"/>
         <v>-1.4089129999999999</v>
       </c>
-      <c r="G166" s="52">
+      <c r="G166" s="51">
         <f t="shared" si="9"/>
         <v>0.19640556141412555</v>
       </c>
@@ -13801,7 +13831,7 @@
         <f t="shared" si="8"/>
         <v>-1.1766269999999996</v>
       </c>
-      <c r="G167" s="52">
+      <c r="G167" s="51">
         <f t="shared" si="9"/>
         <v>0.23565921250881708</v>
       </c>
@@ -13834,7 +13864,7 @@
         <f t="shared" si="8"/>
         <v>-2.3617140000000001</v>
       </c>
-      <c r="G168" s="52">
+      <c r="G168" s="51">
         <f t="shared" si="9"/>
         <v>8.613917401373844E-2</v>
       </c>
@@ -13867,7 +13897,7 @@
         <f t="shared" si="8"/>
         <v>1.1699509999999997</v>
       </c>
-      <c r="G169" s="52">
+      <c r="G169" s="51">
         <f t="shared" si="9"/>
         <v>0.76313615863231865</v>
       </c>
@@ -13900,7 +13930,7 @@
         <f t="shared" si="8"/>
         <v>3.0518960000000002</v>
       </c>
-      <c r="G170" s="52">
+      <c r="G170" s="51">
         <f t="shared" si="9"/>
         <v>0.95486431170186958</v>
       </c>
@@ -13933,7 +13963,7 @@
         <f t="shared" si="8"/>
         <v>-0.10762200000000011</v>
       </c>
-      <c r="G171" s="52">
+      <c r="G171" s="51">
         <f t="shared" si="9"/>
         <v>0.47312043935750836</v>
       </c>
@@ -13966,7 +13996,7 @@
         <f t="shared" si="8"/>
         <v>0.82152199999999986</v>
       </c>
-      <c r="G172" s="52">
+      <c r="G172" s="51">
         <f t="shared" si="9"/>
         <v>0.6945593229186573</v>
       </c>
@@ -13999,7 +14029,7 @@
         <f t="shared" si="8"/>
         <v>0.47309299999999999</v>
       </c>
-      <c r="G173" s="52">
+      <c r="G173" s="51">
         <f t="shared" si="9"/>
         <v>0.61611556625706798</v>
       </c>
@@ -14032,7 +14062,7 @@
         <f t="shared" si="8"/>
         <v>-2.0132849999999998</v>
       </c>
-      <c r="G174" s="52">
+      <c r="G174" s="51">
         <f t="shared" si="9"/>
         <v>0.11781512337074504</v>
       </c>
@@ -14065,7 +14095,7 @@
         <f t="shared" si="8"/>
         <v>0.58923599999999965</v>
       </c>
-      <c r="G175" s="52">
+      <c r="G175" s="51">
         <f t="shared" si="9"/>
         <v>0.64318982942402791</v>
       </c>
@@ -14098,7 +14128,7 @@
         <f t="shared" si="8"/>
         <v>0.82152199999999986</v>
       </c>
-      <c r="G176" s="52">
+      <c r="G176" s="51">
         <f t="shared" si="9"/>
         <v>0.6945593229186573</v>
       </c>
@@ -14131,7 +14161,7 @@
         <f t="shared" si="8"/>
         <v>-2.5939999999999999</v>
       </c>
-      <c r="G177" s="52">
+      <c r="G177" s="51">
         <f t="shared" si="9"/>
         <v>6.952556982397444E-2</v>
       </c>
@@ -14164,7 +14194,7 @@
         <f t="shared" si="8"/>
         <v>-2.245571</v>
       </c>
-      <c r="G178" s="52">
+      <c r="G178" s="51">
         <f t="shared" si="9"/>
         <v>9.5732186622230264E-2</v>
       </c>
@@ -14197,7 +14227,7 @@
         <f t="shared" si="8"/>
         <v>-2.8262859999999996</v>
       </c>
-      <c r="G179" s="52">
+      <c r="G179" s="51">
         <f t="shared" si="9"/>
         <v>5.5920148369076397E-2</v>
       </c>
@@ -14230,7 +14260,7 @@
         <f t="shared" si="8"/>
         <v>2.1227520000000002</v>
       </c>
-      <c r="G180" s="52">
+      <c r="G180" s="51">
         <f t="shared" si="9"/>
         <v>0.89309496480980888</v>
       </c>
@@ -14263,7 +14293,7 @@
         <f t="shared" si="8"/>
         <v>0.12466400000000011</v>
       </c>
-      <c r="G181" s="52">
+      <c r="G181" s="51">
         <f t="shared" si="9"/>
         <v>0.5311256997695083</v>
       </c>
@@ -14301,16 +14331,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="G1" s="57" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="G1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
@@ -14342,14 +14372,14 @@
       <c r="D3" s="4">
         <v>2150</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="62">
+      <c r="H3" s="59">
         <f>(C3-$C$9)/$C$10</f>
         <v>-0.93070761645903932</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="59">
         <f>(D3-$D$9)/$D$10</f>
         <v>-1.0375183732059301</v>
       </c>
@@ -14364,14 +14394,14 @@
       <c r="D4" s="4">
         <v>661</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="H4" s="62">
+      <c r="H4" s="59">
         <f t="shared" ref="H4:H8" si="0">(C4-$C$9)/$C$10</f>
         <v>-0.95284894515991525</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="59">
         <f t="shared" ref="I4:I8" si="1">(D4-$D$9)/$D$10</f>
         <v>-1.4265224501835103</v>
       </c>
@@ -14386,14 +14416,14 @@
       <c r="D5" s="4">
         <v>7200</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="61">
         <f t="shared" si="0"/>
         <v>-0.46024056020709514</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="61">
         <f t="shared" si="1"/>
         <v>0.2818037145958025</v>
       </c>
@@ -14408,14 +14438,14 @@
       <c r="D6" s="4">
         <v>7764</v>
       </c>
-      <c r="G6" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="64">
+      <c r="G6" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="61">
         <f t="shared" si="0"/>
         <v>-6.0249497924605572E-2</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="61">
         <f t="shared" si="1"/>
         <v>0.4291497853918772</v>
       </c>
@@ -14430,14 +14460,14 @@
       <c r="D7" s="4">
         <v>10281</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="57">
         <f t="shared" si="0"/>
         <v>0.95637033294894336</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="57">
         <f t="shared" si="1"/>
         <v>1.0867208141041467</v>
       </c>
@@ -14452,14 +14482,14 @@
       <c r="D8" s="4">
         <v>8672</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="57">
         <f t="shared" si="0"/>
         <v>1.4476762868017119</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="57">
         <f t="shared" si="1"/>
         <v>0.66636650929761443</v>
       </c>
@@ -14489,12 +14519,12 @@
         <f>_xlfn.STDEV.S(D3:D8)</f>
         <v>3827.7233790683817</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -14504,12 +14534,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -14519,7 +14549,7 @@
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="22" t="s">
         <v>167</v>
       </c>
     </row>
@@ -14554,7 +14584,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="11"/>
+    <col min="2" max="3" width="10.83203125" style="10"/>
     <col min="6" max="6" width="13.1640625" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="1"/>
@@ -14566,10 +14596,10 @@
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14577,22 +14607,22 @@
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>10</v>
       </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="N2" s="49"/>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>100</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -14606,16 +14636,16 @@
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>1600</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
       <c r="L4" s="1">
         <v>-10</v>
       </c>
-      <c r="M4" s="50">
+      <c r="M4" s="49">
         <f>1/(1+EXP(-L4))</f>
         <v>4.5397868702434395E-5</v>
       </c>
@@ -14624,16 +14654,16 @@
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>1500</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
       <c r="L5" s="1">
         <v>-9.5</v>
       </c>
-      <c r="M5" s="50">
+      <c r="M5" s="49">
         <f t="shared" ref="M5:M44" si="0">1/(1+EXP(-L5))</f>
         <v>7.4846227510611229E-5</v>
       </c>
@@ -14642,16 +14672,16 @@
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>3300</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
       <c r="L6" s="1">
         <v>-9</v>
       </c>
-      <c r="M6" s="50">
+      <c r="M6" s="49">
         <f t="shared" si="0"/>
         <v>1.2339457598623172E-4</v>
       </c>
@@ -14660,16 +14690,16 @@
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>200</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>0</v>
       </c>
       <c r="L7" s="1">
         <v>-8.5</v>
       </c>
-      <c r="M7" s="50">
+      <c r="M7" s="49">
         <f t="shared" si="0"/>
         <v>2.0342697805520653E-4</v>
       </c>
@@ -14678,16 +14708,16 @@
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>1800</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>1</v>
       </c>
       <c r="L8" s="1">
         <v>-8</v>
       </c>
-      <c r="M8" s="50">
+      <c r="M8" s="49">
         <f t="shared" si="0"/>
         <v>3.3535013046647811E-4</v>
       </c>
@@ -14696,16 +14726,16 @@
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>1700</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>1</v>
       </c>
       <c r="L9" s="1">
         <v>-7.5</v>
       </c>
-      <c r="M9" s="50">
+      <c r="M9" s="49">
         <f t="shared" si="0"/>
         <v>5.5277863692359955E-4</v>
       </c>
@@ -14714,16 +14744,16 @@
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>300</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>0</v>
       </c>
       <c r="L10" s="1">
         <v>-7</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="49">
         <f t="shared" si="0"/>
         <v>9.1105119440064539E-4</v>
       </c>
@@ -14732,16 +14762,16 @@
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>1800</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>1</v>
       </c>
       <c r="L11" s="1">
         <v>-6.5</v>
       </c>
-      <c r="M11" s="50">
+      <c r="M11" s="49">
         <f t="shared" si="0"/>
         <v>1.5011822567369917E-3</v>
       </c>
@@ -14750,16 +14780,16 @@
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>100</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>0</v>
       </c>
       <c r="L12" s="1">
         <v>-6</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="49">
         <f t="shared" si="0"/>
         <v>2.4726231566347743E-3</v>
       </c>
@@ -14768,16 +14798,16 @@
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>500</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>0</v>
       </c>
       <c r="L13" s="1">
         <v>-5.5</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="49">
         <f t="shared" si="0"/>
         <v>4.0701377158961277E-3</v>
       </c>
@@ -14786,16 +14816,16 @@
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>3000</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>1</v>
       </c>
       <c r="L14" s="1">
         <v>-5</v>
       </c>
-      <c r="M14" s="50">
+      <c r="M14" s="49">
         <f t="shared" si="0"/>
         <v>6.6928509242848554E-3</v>
       </c>
@@ -14804,16 +14834,16 @@
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>20</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>0</v>
       </c>
       <c r="L15" s="1">
         <v>-4.5</v>
       </c>
-      <c r="M15" s="50">
+      <c r="M15" s="49">
         <f t="shared" si="0"/>
         <v>1.098694263059318E-2</v>
       </c>
@@ -14822,16 +14852,16 @@
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>200</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>0</v>
       </c>
       <c r="L16" s="1">
         <v>-4</v>
       </c>
-      <c r="M16" s="50">
+      <c r="M16" s="49">
         <f t="shared" si="0"/>
         <v>1.7986209962091559E-2</v>
       </c>
@@ -14840,10 +14870,10 @@
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>700</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>1</v>
       </c>
       <c r="F17" t="s">
@@ -14852,7 +14882,7 @@
       <c r="L17" s="1">
         <v>-3.5</v>
       </c>
-      <c r="M17" s="50">
+      <c r="M17" s="49">
         <f t="shared" si="0"/>
         <v>2.9312230751356319E-2</v>
       </c>
@@ -14861,10 +14891,10 @@
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>1600</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>1</v>
       </c>
       <c r="F18" t="s">
@@ -14873,14 +14903,14 @@
       <c r="G18" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="43"/>
+      <c r="H18" s="42"/>
       <c r="I18" t="s">
         <v>129</v>
       </c>
       <c r="L18" s="1">
         <v>-3</v>
       </c>
-      <c r="M18" s="50">
+      <c r="M18" s="49">
         <f t="shared" si="0"/>
         <v>4.7425873177566781E-2</v>
       </c>
@@ -14889,16 +14919,16 @@
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>1900</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>1</v>
       </c>
       <c r="L19" s="1">
         <v>-2.5</v>
       </c>
-      <c r="M19" s="50">
+      <c r="M19" s="49">
         <f t="shared" si="0"/>
         <v>7.5858180021243546E-2</v>
       </c>
@@ -14907,10 +14937,10 @@
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>100</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>0</v>
       </c>
       <c r="F20" t="s">
@@ -14919,7 +14949,7 @@
       <c r="L20" s="1">
         <v>-2</v>
       </c>
-      <c r="M20" s="50">
+      <c r="M20" s="49">
         <f t="shared" si="0"/>
         <v>0.11920292202211755</v>
       </c>
@@ -14928,10 +14958,10 @@
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>400</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>0</v>
       </c>
       <c r="F21" t="s">
@@ -14940,7 +14970,7 @@
       <c r="L21" s="1">
         <v>-1.5</v>
       </c>
-      <c r="M21" s="50">
+      <c r="M21" s="49">
         <f t="shared" si="0"/>
         <v>0.18242552380635635</v>
       </c>
@@ -14949,19 +14979,19 @@
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>2700</v>
       </c>
-      <c r="C22" s="11">
-        <v>1</v>
-      </c>
-      <c r="F22" s="20" t="s">
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>119</v>
       </c>
       <c r="L22" s="1">
         <v>-1</v>
       </c>
-      <c r="M22" s="50">
+      <c r="M22" s="49">
         <f t="shared" si="0"/>
         <v>0.2689414213699951</v>
       </c>
@@ -14970,17 +15000,17 @@
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>200</v>
       </c>
-      <c r="C23" s="11">
-        <v>0</v>
-      </c>
-      <c r="F23" s="21"/>
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="20"/>
       <c r="L23" s="1">
         <v>-0.5</v>
       </c>
-      <c r="M23" s="50">
+      <c r="M23" s="49">
         <f t="shared" si="0"/>
         <v>0.37754066879814541</v>
       </c>
@@ -14989,16 +15019,16 @@
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>300</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>0</v>
       </c>
       <c r="L24" s="1">
         <v>0</v>
       </c>
-      <c r="M24" s="50">
+      <c r="M24" s="49">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -15007,10 +15037,10 @@
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>500</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>0</v>
       </c>
       <c r="G25" t="s">
@@ -15019,7 +15049,7 @@
       <c r="L25" s="1">
         <v>0.5</v>
       </c>
-      <c r="M25" s="50">
+      <c r="M25" s="49">
         <f t="shared" si="0"/>
         <v>0.62245933120185459</v>
       </c>
@@ -15028,10 +15058,10 @@
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>2500</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>1</v>
       </c>
       <c r="G26" t="s">
@@ -15040,7 +15070,7 @@
       <c r="L26" s="1">
         <v>1</v>
       </c>
-      <c r="M26" s="50">
+      <c r="M26" s="49">
         <f t="shared" si="0"/>
         <v>0.7310585786300049</v>
       </c>
@@ -15049,16 +15079,16 @@
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>1400</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>1</v>
       </c>
       <c r="L27" s="1">
         <v>1.5</v>
       </c>
-      <c r="M27" s="50">
+      <c r="M27" s="49">
         <f t="shared" si="0"/>
         <v>0.81757447619364365</v>
       </c>
@@ -15067,16 +15097,16 @@
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>700</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>0</v>
       </c>
       <c r="L28" s="1">
         <v>2</v>
       </c>
-      <c r="M28" s="50">
+      <c r="M28" s="49">
         <f t="shared" si="0"/>
         <v>0.88079707797788231</v>
       </c>
@@ -15085,16 +15115,16 @@
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>1700</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>1</v>
       </c>
       <c r="L29" s="1">
         <v>2.5</v>
       </c>
-      <c r="M29" s="50">
+      <c r="M29" s="49">
         <f t="shared" si="0"/>
         <v>0.92414181997875655</v>
       </c>
@@ -15103,16 +15133,16 @@
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>1400</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>1</v>
       </c>
       <c r="L30" s="1">
         <v>3</v>
       </c>
-      <c r="M30" s="50">
+      <c r="M30" s="49">
         <f t="shared" si="0"/>
         <v>0.95257412682243336</v>
       </c>
@@ -15121,16 +15151,16 @@
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>1600</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>1</v>
       </c>
       <c r="L31" s="1">
         <v>3.5</v>
       </c>
-      <c r="M31" s="50">
+      <c r="M31" s="49">
         <f t="shared" si="0"/>
         <v>0.97068776924864364</v>
       </c>
@@ -15139,16 +15169,16 @@
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>400</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>0</v>
       </c>
       <c r="L32" s="1">
         <v>4</v>
       </c>
-      <c r="M32" s="50">
+      <c r="M32" s="49">
         <f t="shared" si="0"/>
         <v>0.98201379003790845</v>
       </c>
@@ -15157,16 +15187,16 @@
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>200</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <v>0</v>
       </c>
       <c r="L33" s="1">
         <v>4.5</v>
       </c>
-      <c r="M33" s="50">
+      <c r="M33" s="49">
         <f t="shared" si="0"/>
         <v>0.98901305736940681</v>
       </c>
@@ -15175,16 +15205,16 @@
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>1600</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>1</v>
       </c>
       <c r="L34" s="1">
         <v>5</v>
       </c>
-      <c r="M34" s="50">
+      <c r="M34" s="49">
         <f t="shared" si="0"/>
         <v>0.99330714907571527</v>
       </c>
@@ -15193,16 +15223,16 @@
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>2200</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>1</v>
       </c>
       <c r="L35" s="1">
         <v>5.5</v>
       </c>
-      <c r="M35" s="50">
+      <c r="M35" s="49">
         <f t="shared" si="0"/>
         <v>0.99592986228410396</v>
       </c>
@@ -15211,16 +15241,16 @@
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>1900</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <v>1</v>
       </c>
       <c r="L36" s="1">
         <v>6</v>
       </c>
-      <c r="M36" s="50">
+      <c r="M36" s="49">
         <f t="shared" si="0"/>
         <v>0.99752737684336534</v>
       </c>
@@ -15229,16 +15259,16 @@
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>200</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <v>0</v>
       </c>
       <c r="L37" s="1">
         <v>6.5</v>
       </c>
-      <c r="M37" s="50">
+      <c r="M37" s="49">
         <f t="shared" si="0"/>
         <v>0.99849881774326299</v>
       </c>
@@ -15247,16 +15277,16 @@
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>1200</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>0</v>
       </c>
       <c r="L38" s="1">
         <v>7</v>
       </c>
-      <c r="M38" s="50">
+      <c r="M38" s="49">
         <f t="shared" si="0"/>
         <v>0.9990889488055994</v>
       </c>
@@ -15265,16 +15295,16 @@
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>1700</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="10">
         <v>1</v>
       </c>
       <c r="L39" s="1">
         <v>7.5</v>
       </c>
-      <c r="M39" s="50">
+      <c r="M39" s="49">
         <f t="shared" si="0"/>
         <v>0.9994472213630764</v>
       </c>
@@ -15283,16 +15313,16 @@
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>1500</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <v>1</v>
       </c>
       <c r="L40" s="1">
         <v>8</v>
       </c>
-      <c r="M40" s="50">
+      <c r="M40" s="49">
         <f t="shared" si="0"/>
         <v>0.99966464986953363</v>
       </c>
@@ -15301,16 +15331,16 @@
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>2100</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <v>1</v>
       </c>
       <c r="L41" s="1">
         <v>8.5</v>
       </c>
-      <c r="M41" s="50">
+      <c r="M41" s="49">
         <f t="shared" si="0"/>
         <v>0.9997965730219448</v>
       </c>
@@ -15319,16 +15349,16 @@
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>400</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <v>0</v>
       </c>
       <c r="L42" s="1">
         <v>9</v>
       </c>
-      <c r="M42" s="50">
+      <c r="M42" s="49">
         <f t="shared" si="0"/>
         <v>0.99987660542401369</v>
       </c>
@@ -15337,16 +15367,16 @@
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>800</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <v>0</v>
       </c>
       <c r="L43" s="1">
         <v>9.5</v>
       </c>
-      <c r="M43" s="50">
+      <c r="M43" s="49">
         <f t="shared" si="0"/>
         <v>0.99992515377248947</v>
       </c>
@@ -15355,16 +15385,16 @@
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>400</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <v>0</v>
       </c>
       <c r="L44" s="1">
         <v>10</v>
       </c>
-      <c r="M44" s="50">
+      <c r="M44" s="49">
         <f t="shared" si="0"/>
         <v>0.99995460213129761</v>
       </c>
@@ -15373,10 +15403,10 @@
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>500</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <v>1</v>
       </c>
     </row>
@@ -15384,10 +15414,10 @@
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>1000</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="10">
         <v>0</v>
       </c>
     </row>
@@ -15395,10 +15425,10 @@
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>300</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="10">
         <v>0</v>
       </c>
     </row>
@@ -15406,10 +15436,10 @@
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="10">
         <v>800</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="10">
         <v>1</v>
       </c>
     </row>
@@ -15421,524 +15451,616 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1958CD-CB22-E64A-A1AC-6160771FCCD9}">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="H7" sqref="H4:H7"/>
+      <selection activeCell="C1" sqref="C1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>8</v>
+    <row r="1" spans="1:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="K1" s="67" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="63">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
         <v>6</v>
       </c>
-      <c r="B2" s="25">
+      <c r="C2" s="24">
         <v>11</v>
       </c>
-      <c r="C2" s="25">
-        <f>RANK(F2,$F$2:$F$20,1)</f>
+      <c r="D2" s="24">
+        <f>RANK(G2,$G$2:$G$20,1)</f>
         <v>17</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9">
-        <f>SQRT((A2-$A$21)^2+(B2-$B$21)^2)</f>
+      <c r="G2" s="9">
+        <f>SQRT((B2-$B$21)^2+(C2-$C$21)^2)</f>
         <v>44.687805943008662</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="V2" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="33">
+        <v>2</v>
+      </c>
+      <c r="B3" s="64">
         <v>48</v>
       </c>
-      <c r="B3" s="8">
+      <c r="C3" s="64">
         <v>59</v>
       </c>
-      <c r="C3" s="25">
-        <f t="shared" ref="C3:C20" si="0">RANK(F3,$F$2:$F$20,1)</f>
+      <c r="D3" s="64">
+        <f t="shared" ref="D3:D20" si="0">RANK(G3,$G$2:$G$20,1)</f>
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3:F20" si="1">SQRT((A3-$A$21)^2+(B3-$B$21)^2)</f>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G20" si="1">SQRT((B3-$B$21)^2+(C3-$C$21)^2)</f>
         <v>20.615528128088304</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>97</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
         <v>12</v>
       </c>
-      <c r="B4" s="8">
+      <c r="C4" s="8">
         <v>20</v>
       </c>
-      <c r="C4" s="25">
+      <c r="D4" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
         <f t="shared" si="1"/>
         <v>34.409301068170507</v>
       </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>175</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
         <v>42</v>
       </c>
-      <c r="B5" s="8">
+      <c r="C5" s="8">
         <v>78</v>
       </c>
-      <c r="C5" s="25">
+      <c r="D5" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9">
+      <c r="G5" s="9">
         <f t="shared" si="1"/>
         <v>38.052595180880893</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>172</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="33">
+        <v>5</v>
+      </c>
+      <c r="B6" s="64">
         <v>24</v>
       </c>
-      <c r="B6" s="8">
+      <c r="C6" s="64">
         <v>48</v>
       </c>
-      <c r="C6" s="25">
+      <c r="D6" s="64">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9">
+      <c r="G6" s="9">
         <f t="shared" si="1"/>
         <v>17.888543819998318</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>176</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>15</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>85</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
         <v>36</v>
       </c>
-      <c r="B7" s="8">
+      <c r="C7" s="8">
         <v>90</v>
       </c>
-      <c r="C7" s="25">
+      <c r="D7" s="24">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <f t="shared" si="1"/>
         <v>50.159744815937813</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>7</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>177</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>14</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>87</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="33">
+        <v>7</v>
+      </c>
+      <c r="B8" s="64">
         <v>24</v>
       </c>
-      <c r="B8" s="8">
+      <c r="C8" s="64">
         <v>28</v>
       </c>
-      <c r="C8" s="25">
+      <c r="D8" s="64">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
         <v>36</v>
       </c>
-      <c r="B9" s="8">
+      <c r="C9" s="8">
         <v>69</v>
       </c>
-      <c r="C9" s="25">
+      <c r="D9" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G9" s="9">
         <f t="shared" si="1"/>
         <v>29.274562336608895</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="J9" s="66"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="I9" s="2"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
         <v>12</v>
       </c>
-      <c r="B10" s="8">
+      <c r="C10" s="8">
         <v>30</v>
       </c>
-      <c r="C10" s="25">
+      <c r="D10" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="9">
+      <c r="G10" s="9">
         <f t="shared" si="1"/>
         <v>29.732137494637012</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>100</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>89</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
+      <c r="B11" s="64">
         <v>30</v>
       </c>
-      <c r="B11" s="8">
+      <c r="C11" s="64">
         <v>52</v>
       </c>
-      <c r="C11" s="25">
+      <c r="D11" s="64">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="34"/>
+      <c r="G11" s="65">
         <f t="shared" si="1"/>
         <v>15.620499351813308</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>93</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>12</v>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
       </c>
       <c r="B12" s="8">
         <v>12</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="8">
+        <v>12</v>
+      </c>
+      <c r="D12" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="9">
+      <c r="G12" s="9">
         <f t="shared" si="1"/>
         <v>39.597979746446661</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="33">
+        <v>12</v>
+      </c>
+      <c r="B13" s="64">
         <v>48</v>
       </c>
-      <c r="B13" s="8">
+      <c r="C13" s="64">
         <v>43</v>
       </c>
-      <c r="C13" s="25">
+      <c r="D13" s="64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="34"/>
+      <c r="G13" s="65">
         <f t="shared" si="1"/>
         <v>8.5440037453175304</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>173</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
+      <c r="C14" s="8">
         <v>15</v>
       </c>
-      <c r="C14" s="25">
+      <c r="D14" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="9">
+      <c r="G14" s="9">
         <f t="shared" si="1"/>
         <v>37.536648758246919</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>174</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
         <v>24</v>
       </c>
-      <c r="B15" s="8">
+      <c r="C15" s="8">
         <v>11</v>
       </c>
-      <c r="C15" s="25">
+      <c r="D15" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="9">
+      <c r="G15" s="9">
         <f t="shared" si="1"/>
         <v>33.120990323358392</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="8">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8">
         <v>14</v>
       </c>
-      <c r="C16" s="25">
+      <c r="D16" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="9">
+      <c r="G16" s="9">
         <f t="shared" si="1"/>
         <v>36.069377593742864</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
         <v>24</v>
       </c>
-      <c r="B17" s="8">
+      <c r="C17" s="8">
         <v>12</v>
       </c>
-      <c r="C17" s="25">
+      <c r="D17" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="9">
+      <c r="G17" s="9">
         <f t="shared" si="1"/>
         <v>32.249030993194197</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>24</v>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
       </c>
       <c r="B18" s="8">
         <v>24</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="8">
+        <v>24</v>
+      </c>
+      <c r="D18" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="9">
+      <c r="G18" s="9">
         <f t="shared" si="1"/>
         <v>22.627416997969522</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="I18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8">
         <v>30</v>
       </c>
-      <c r="B19" s="8">
+      <c r="C19" s="8">
         <v>80</v>
       </c>
-      <c r="C19" s="25">
+      <c r="D19" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="9">
+      <c r="G19" s="9">
         <f t="shared" si="1"/>
         <v>41.231056256176608</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="I19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8">
         <v>24</v>
       </c>
-      <c r="B20" s="8">
+      <c r="C20" s="8">
         <v>125</v>
       </c>
-      <c r="C20" s="25">
+      <c r="D20" s="24">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="9">
+      <c r="G20" s="9">
         <f t="shared" si="1"/>
         <v>86.49277426467485</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="26">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25">
         <v>40</v>
       </c>
-      <c r="B21" s="26">
+      <c r="C21" s="25">
         <v>40</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="26" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D22" s="1" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -15962,13 +16084,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>102</v>
       </c>
     </row>
@@ -16159,32 +16281,32 @@
       <c r="A1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>78</v>
       </c>
       <c r="M1" t="s">
@@ -16192,225 +16314,225 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>6</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="45">
         <v>11</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="27">
         <f>SQRT((A2-$I$2)^2+(B2-$J$2)^2)</f>
         <v>6.0827625302982193</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="28">
         <f>SQRT((A2-$I$3)^2+(B2-$J$3)^2)</f>
         <v>16.643316977093239</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="28">
         <f>SQRT((A2-$I$4)^2+(B2-$J$4)^2)</f>
         <v>21.023796041628639</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="28">
         <f>IF(MIN(C2:E2)=C2,1,IF(MIN(C2:E2)=D2,2,3))</f>
         <v>1</v>
       </c>
-      <c r="H2" s="12">
-        <v>1</v>
-      </c>
-      <c r="I2" s="12">
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11">
         <v>5</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <v>5</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="11">
         <f>COUNTIF($F$2:$F$18,"=1")</f>
         <v>2</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="11">
         <v>5</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>48</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="46">
         <v>59</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <f t="shared" ref="C3:C18" si="0">SQRT((A3-$I$2)^2+(B3-$J$2)^2)</f>
         <v>69.028979421689272</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <f t="shared" ref="D3:D18" si="1">SQRT((A3-$I$3)^2+(B3-$J$3)^2)</f>
         <v>48.010415536631214</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <f t="shared" ref="E3:E18" si="2">SQRT((A3-$I$4)^2+(B3-$J$4)^2)</f>
         <v>43.931765272977593</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <f t="shared" ref="F3:F18" si="3">IF(MIN(C3:E3)=C3,1,IF(MIN(C3:E3)=D3,2,3))</f>
         <v>3</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>2</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>20</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>20</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <f>COUNTIF($F$2:$F$18,"=2")</f>
         <v>7</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <v>20</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>12</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="46">
         <v>20</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <f t="shared" si="0"/>
         <v>16.552945357246848</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <f t="shared" si="2"/>
         <v>10.440306508910551</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>3</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>15</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>30</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <f>COUNTIF($F$2:$F$18,"=3")</f>
         <v>8</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <v>15</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>42</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="46">
         <v>78</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <f t="shared" si="0"/>
         <v>81.841309862440497</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <f t="shared" si="1"/>
         <v>62.032249677083293</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <f t="shared" si="2"/>
         <v>55.072679252057455</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>24</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="46">
         <v>48</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <f t="shared" si="0"/>
         <v>47.010637094172637</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <f t="shared" si="1"/>
         <v>28.284271247461902</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <f t="shared" si="2"/>
         <v>20.124611797498108</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="29" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>36</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <v>90</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <f t="shared" si="0"/>
         <v>90.476516290140168</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <f t="shared" si="1"/>
         <v>71.805292284064961</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <f t="shared" si="2"/>
         <v>63.56886030125127</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11">
         <f>AVERAGEIF($F$2:$F$18,1,$A$2:$A$18)</f>
         <v>9</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <f>AVERAGEIF(F2:$F$18,1,$B$2:$B$18)</f>
         <v>11.5</v>
       </c>
@@ -16419,36 +16541,36 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>24</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="46">
         <v>28</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <f t="shared" si="0"/>
         <v>29.832867780352597</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <f t="shared" si="1"/>
         <v>8.9442719099991592</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <f t="shared" si="2"/>
         <v>9.2195444572928871</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>2</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <f>AVERAGEIF($F$2:$F$18,2,$A$2:$A$18)</f>
         <v>19.285714285714285</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <f>AVERAGEIF(F3:$F$18,2,$B$2:$B$18)</f>
         <v>34.857142857142854</v>
       </c>
@@ -16457,36 +16579,36 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>36</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="46">
         <v>69</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <f t="shared" si="0"/>
         <v>71.112586790244109</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <f t="shared" si="1"/>
         <v>51.546095875439491</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <f t="shared" si="2"/>
         <v>44.294469180700204</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>3</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <f>AVERAGEIF($F$2:$F$18,3,$A$2:$A$18)</f>
         <v>34.5</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <f>AVERAGEIF(F4:$F$18,3,$B$2:$B$18)</f>
         <v>56.571428571428569</v>
       </c>
@@ -16495,217 +16617,217 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>12</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="46">
         <v>30</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <f t="shared" si="0"/>
         <v>25.96150997149434</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" si="1"/>
         <v>12.806248474865697</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>30</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="46">
         <v>52</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <f t="shared" si="0"/>
         <v>53.235326616824658</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <f t="shared" si="1"/>
         <v>33.526109228480422</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f t="shared" si="2"/>
         <v>26.627053911388696</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <v>12</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="46">
         <v>12</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <f t="shared" si="0"/>
         <v>9.8994949366116654</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <f t="shared" si="1"/>
         <v>11.313708498984761</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <f t="shared" si="2"/>
         <v>18.248287590894659</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
+      <c r="A13" s="24">
         <v>48</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="46">
         <v>43</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <f t="shared" si="0"/>
         <v>57.384666941614292</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <f t="shared" si="1"/>
         <v>36.235341863986875</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <f t="shared" si="2"/>
         <v>35.468295701936398</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
+      <c r="A14" s="24">
         <v>12</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="46">
         <v>15</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <f t="shared" si="0"/>
         <v>12.206555615733702</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <f t="shared" si="1"/>
         <v>9.4339811320566032</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <f t="shared" si="2"/>
         <v>15.297058540778355</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
+      <c r="A15" s="24">
         <v>24</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="46">
         <v>11</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <f t="shared" si="0"/>
         <v>19.924858845171276</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <f t="shared" si="1"/>
         <v>9.8488578017961039</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <f t="shared" si="2"/>
         <v>21.023796041628639</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
+      <c r="A16" s="24">
         <v>15</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="46">
         <v>14</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <f t="shared" si="0"/>
         <v>13.45362404707371</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <f t="shared" si="1"/>
         <v>7.810249675906654</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
+      <c r="A17" s="24">
         <v>24</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="46">
         <v>12</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <f t="shared" si="0"/>
         <v>20.248456731316587</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <f t="shared" si="1"/>
         <v>8.9442719099991592</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <f t="shared" si="2"/>
         <v>20.124611797498108</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
+      <c r="A18" s="24">
         <v>24</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="46">
         <v>24</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <f t="shared" si="0"/>
         <v>26.870057685088806</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <f t="shared" si="1"/>
         <v>5.6568542494923806</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <f t="shared" si="2"/>
         <v>10.816653826391969</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -16721,23 +16843,23 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H22" s="31"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H23" s="31"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H24" s="31"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H25" s="31"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -16847,7 +16969,7 @@
       <c r="G2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>82</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -16870,13 +16992,13 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="36">
         <v>327.5</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="36">
         <v>2150</v>
       </c>
       <c r="E3">
@@ -16892,7 +17014,7 @@
         <v>7473.2550680744198</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>1</v>
       </c>
       <c r="K3" s="1">
@@ -16912,17 +17034,17 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>312.2</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>661</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="J4" s="33">
+      <c r="J4" s="32">
         <v>2</v>
       </c>
       <c r="K4" s="1">
@@ -16942,17 +17064,17 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="38">
         <v>652.6</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="38">
         <v>7200</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="J5" s="34">
+      <c r="J5" s="33">
         <v>3</v>
       </c>
       <c r="K5" s="1">
@@ -16972,37 +17094,37 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="39">
+      <c r="B6" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="38">
         <v>929</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="38">
         <v>7764</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="40">
         <v>1631.5</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="40">
         <v>10281</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="40">
         <v>1971</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="40">
         <v>8672</v>
       </c>
       <c r="H8" s="1"/>
@@ -17038,7 +17160,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>109</v>
       </c>
       <c r="J11" s="1">
@@ -17051,7 +17173,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="41" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="1">
@@ -17064,7 +17186,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>110</v>
       </c>
     </row>
